--- a/template_gushi/处理签模板.xlsx
+++ b/template_gushi/处理签模板.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
-    <t>固 始 县 财 政 局 发 文 处 理 签</t>
+    <t>某 财 政 局 发 文 处 理 签</t>
   </si>
   <si>
     <t>签发人：</t>
@@ -51,7 +64,7 @@
         <rFont val="仿宋_GB2312"/>
         <charset val="134"/>
       </rPr>
-      <t>固始县看守所异常行为监管系统建设项目</t>
+      <t>某项目</t>
     </r>
     <r>
       <rPr>
@@ -67,7 +80,7 @@
     <t>发文编号：</t>
   </si>
   <si>
-    <t>固 财〔20   〕     号</t>
+    <t xml:space="preserve"> 某财〔20   〕     号</t>
   </si>
   <si>
     <t>主送单位：</t>
@@ -88,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1331,11 +1344,11 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
